--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2668029.014508118</v>
+        <v>2783615.140830598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12453847.07671752</v>
+        <v>12448913.88118193</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8831755.652287653</v>
+        <v>8832759.245338434</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213.2445435269807</v>
+        <v>185.2449961814032</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>213.2445435269807</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>213.2445435269807</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122.0400102410186</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X2" t="n">
-        <v>60.0113497567755</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.43617190678941</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>2.741221885529743</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.13594426403252</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>213.2445435269807</v>
+        <v>1.948228754746898</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X4" t="n">
-        <v>213.2445435269807</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.01439487787723</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>320.2362084475301</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>312.1904216779164</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="I5" t="n">
-        <v>107.7656660302873</v>
+        <v>111.7608855401378</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.4334670066612</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1325197029027</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>124.3087480976048</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>40.31850253194251</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6546478083815</v>
+        <v>15.09724236790377</v>
       </c>
       <c r="S6" t="n">
-        <v>145.2059886958166</v>
+        <v>114.2549961152965</v>
       </c>
       <c r="T6" t="n">
-        <v>194.4191488523254</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>160.9961237670595</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>191.94343265435</v>
+        <v>125.8297114537253</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>16.67178094189784</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>7.513365682479557</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112.3581576295229</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>81.46264465980866</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617374</v>
@@ -1348,16 +1350,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>80.07147829118261</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>66.78466399819841</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H22" t="n">
-        <v>104.8913819999793</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>54.29785174158928</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>142.304610006627</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>104.8913819999787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4437570891997</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>30.97191586387748</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.26758323426815</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>123.9815576456783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>28.87857325624034</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176216</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>98.45284414232987</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695518</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F40" t="n">
-        <v>59.96838802184633</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>29.6738200803762</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>38.95525409458246</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>786.527887544745</v>
+        <v>345.9866426825747</v>
       </c>
       <c r="C2" t="n">
-        <v>786.527887544745</v>
+        <v>345.9866426825747</v>
       </c>
       <c r="D2" t="n">
-        <v>571.1293587296129</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E2" t="n">
-        <v>571.1293587296129</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="F2" t="n">
-        <v>355.730829914481</v>
+        <v>151.9249841743781</v>
       </c>
       <c r="G2" t="n">
-        <v>140.332301099349</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>140.332301099349</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J2" t="n">
-        <v>30.5697471065107</v>
+        <v>40.41888584470428</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5565284515751</v>
+        <v>122.9820404192966</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5236696486553</v>
+        <v>262.3106962605498</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2431302647976</v>
+        <v>449.0101090859574</v>
       </c>
       <c r="N2" t="n">
-        <v>575.3388186142429</v>
+        <v>643.3443219779397</v>
       </c>
       <c r="O2" t="n">
-        <v>730.1742656760282</v>
+        <v>813.5133472948991</v>
       </c>
       <c r="P2" t="n">
-        <v>827.8217366396342</v>
+        <v>924.2476725444255</v>
       </c>
       <c r="Q2" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S2" t="n">
-        <v>847.1454125515889</v>
+        <v>803.0167550628487</v>
       </c>
       <c r="T2" t="n">
-        <v>847.1454125515889</v>
+        <v>588.2168933305597</v>
       </c>
       <c r="U2" t="n">
-        <v>847.1454125515889</v>
+        <v>588.2168933305597</v>
       </c>
       <c r="V2" t="n">
-        <v>847.1454125515889</v>
+        <v>588.2168933305597</v>
       </c>
       <c r="W2" t="n">
-        <v>847.1454125515889</v>
+        <v>345.9866426825747</v>
       </c>
       <c r="X2" t="n">
-        <v>786.527887544745</v>
+        <v>345.9866426825747</v>
       </c>
       <c r="Y2" t="n">
-        <v>786.527887544745</v>
+        <v>345.9866426825747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>831.3254752121758</v>
+        <v>327.7255598253755</v>
       </c>
       <c r="C3" t="n">
-        <v>656.8724459310488</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="D3" t="n">
-        <v>507.9380362697976</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="E3" t="n">
-        <v>348.7005812643421</v>
+        <v>165.7191938244355</v>
       </c>
       <c r="F3" t="n">
-        <v>202.166023291227</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G3" t="n">
-        <v>64.674944197594</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H3" t="n">
-        <v>64.674944197594</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J3" t="n">
-        <v>49.58400458051115</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3290061694342</v>
+        <v>152.9092351450208</v>
       </c>
       <c r="L3" t="n">
-        <v>235.9860749520332</v>
+        <v>290.1388331607147</v>
       </c>
       <c r="M3" t="n">
-        <v>403.145768365604</v>
+        <v>469.6361695153195</v>
       </c>
       <c r="N3" t="n">
-        <v>589.1383263803878</v>
+        <v>668.2929111679841</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>827.8052238367447</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>936.4948513640436</v>
       </c>
       <c r="Q3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U3" t="n">
-        <v>852.9781741079227</v>
+        <v>731.0930050771863</v>
       </c>
       <c r="V3" t="n">
-        <v>852.9781741079227</v>
+        <v>495.9408968454435</v>
       </c>
       <c r="W3" t="n">
-        <v>852.9781741079227</v>
+        <v>495.9408968454435</v>
       </c>
       <c r="X3" t="n">
-        <v>852.9781741079227</v>
+        <v>495.9408968454435</v>
       </c>
       <c r="Y3" t="n">
-        <v>852.9781741079227</v>
+        <v>495.9408968454435</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.7825876625267</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="C4" t="n">
-        <v>206.7825876625267</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D4" t="n">
-        <v>206.7825876625267</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E4" t="n">
-        <v>206.7825876625267</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F4" t="n">
-        <v>192.5038560826958</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G4" t="n">
-        <v>192.5038560826958</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H4" t="n">
-        <v>37.87889540591735</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I4" t="n">
-        <v>37.87889540591735</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K4" t="n">
-        <v>113.3646722991124</v>
+        <v>60.34504070228559</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1284894992939</v>
+        <v>245.1780356031039</v>
       </c>
       <c r="M4" t="n">
-        <v>490.9989932947162</v>
+        <v>450.4476363223419</v>
       </c>
       <c r="N4" t="n">
-        <v>690.5754174291684</v>
+        <v>656.2710011584461</v>
       </c>
       <c r="O4" t="n">
-        <v>852.9781741079227</v>
+        <v>830.3658965470449</v>
       </c>
       <c r="P4" t="n">
-        <v>852.9781741079227</v>
+        <v>955.8134731456606</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T4" t="n">
-        <v>852.9781741079227</v>
+        <v>733.6025958783855</v>
       </c>
       <c r="U4" t="n">
-        <v>637.5796452927907</v>
+        <v>731.6346880453078</v>
       </c>
       <c r="V4" t="n">
-        <v>637.5796452927907</v>
+        <v>489.4044373973228</v>
       </c>
       <c r="W4" t="n">
-        <v>637.5796452927907</v>
+        <v>247.1741867493378</v>
       </c>
       <c r="X4" t="n">
-        <v>422.1811164776587</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.7825876625267</v>
+        <v>19.18463585132041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.7064633764197</v>
+        <v>1035.597653639596</v>
       </c>
       <c r="C5" t="n">
-        <v>813.7064633764197</v>
+        <v>742.3749148372274</v>
       </c>
       <c r="D5" t="n">
-        <v>813.7064633764197</v>
+        <v>449.1521760348592</v>
       </c>
       <c r="E5" t="n">
-        <v>813.7064633764197</v>
+        <v>449.1521760348592</v>
       </c>
       <c r="F5" t="n">
-        <v>773.2878826916952</v>
+        <v>442.2066752856557</v>
       </c>
       <c r="G5" t="n">
-        <v>449.8169650679274</v>
+        <v>429.3357630893924</v>
       </c>
       <c r="H5" t="n">
-        <v>134.4731047872037</v>
+        <v>136.1130242870241</v>
       </c>
       <c r="I5" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="J5" t="n">
-        <v>70.23995380345536</v>
+        <v>59.13673382951856</v>
       </c>
       <c r="K5" t="n">
-        <v>187.8538698679766</v>
+        <v>163.7002683444935</v>
       </c>
       <c r="L5" t="n">
-        <v>370.6660947378309</v>
+        <v>330.3223409084605</v>
       </c>
       <c r="M5" t="n">
-        <v>605.7493564943309</v>
+        <v>547.3909387162818</v>
       </c>
       <c r="N5" t="n">
-        <v>849.2503195768676</v>
+        <v>772.5857417536985</v>
       </c>
       <c r="O5" t="n">
-        <v>1065.846112893876</v>
+        <v>971.895547241684</v>
       </c>
       <c r="P5" t="n">
-        <v>1216.204610510205</v>
+        <v>1107.500854171404</v>
       </c>
       <c r="Q5" t="n">
-        <v>1280.944833790121</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="R5" t="n">
-        <v>1280.944833790121</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="S5" t="n">
-        <v>1280.944833790121</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="T5" t="n">
-        <v>1067.375675197534</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="U5" t="n">
-        <v>813.7064633764197</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="V5" t="n">
-        <v>813.7064633764197</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="W5" t="n">
-        <v>813.7064633764197</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="X5" t="n">
-        <v>813.7064633764197</v>
+        <v>1035.597653639596</v>
       </c>
       <c r="Y5" t="n">
-        <v>813.7064633764197</v>
+        <v>1035.597653639596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.34465680907766</v>
+        <v>172.1576505743988</v>
       </c>
       <c r="C6" t="n">
-        <v>66.34465680907766</v>
+        <v>172.1576505743988</v>
       </c>
       <c r="D6" t="n">
-        <v>66.34465680907766</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="E6" t="n">
-        <v>66.34465680907766</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="F6" t="n">
-        <v>66.34465680907766</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="G6" t="n">
-        <v>66.34465680907766</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="H6" t="n">
-        <v>66.34465680907766</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="I6" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="J6" t="n">
-        <v>33.37704565919614</v>
+        <v>150.6253492920935</v>
       </c>
       <c r="K6" t="n">
-        <v>284.8607696380088</v>
+        <v>233.1761032933329</v>
       </c>
       <c r="L6" t="n">
-        <v>454.101706019097</v>
+        <v>390.4983205989436</v>
       </c>
       <c r="M6" t="n">
-        <v>670.9547643688302</v>
+        <v>595.998205247804</v>
       </c>
       <c r="N6" t="n">
-        <v>907.9559228224142</v>
+        <v>818.7226619044636</v>
       </c>
       <c r="O6" t="n">
-        <v>1102.545885674137</v>
+        <v>1000.252231792093</v>
       </c>
       <c r="P6" t="n">
-        <v>1239.38841997353</v>
+        <v>1126.612649313219</v>
       </c>
       <c r="Q6" t="n">
-        <v>1280.944833790121</v>
+        <v>1161.162045657378</v>
       </c>
       <c r="R6" t="n">
-        <v>1269.172462266503</v>
+        <v>1145.912305891819</v>
       </c>
       <c r="S6" t="n">
-        <v>1122.499746412142</v>
+        <v>1030.503218906671</v>
       </c>
       <c r="T6" t="n">
-        <v>926.11676777343</v>
+        <v>1030.503218906671</v>
       </c>
       <c r="U6" t="n">
-        <v>763.4944205339759</v>
+        <v>802.3706430876223</v>
       </c>
       <c r="V6" t="n">
-        <v>528.3423123022333</v>
+        <v>802.3706430876223</v>
       </c>
       <c r="W6" t="n">
-        <v>274.1049555740316</v>
+        <v>548.1332863594207</v>
       </c>
       <c r="X6" t="n">
-        <v>274.1049555740316</v>
+        <v>548.1332863594207</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.34465680907766</v>
+        <v>340.3729875944668</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="C7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="D7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="E7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="F7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="G7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="H7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="I7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="J7" t="n">
-        <v>25.61889667580241</v>
+        <v>23.22324091314757</v>
       </c>
       <c r="K7" t="n">
-        <v>141.0270647162232</v>
+        <v>133.2846894279142</v>
       </c>
       <c r="L7" t="n">
-        <v>344.236220769345</v>
+        <v>329.6518852993031</v>
       </c>
       <c r="M7" t="n">
-        <v>568.8809068957719</v>
+        <v>547.0826837276977</v>
       </c>
       <c r="N7" t="n">
-        <v>793.6186609135275</v>
+        <v>764.7780801730482</v>
       </c>
       <c r="O7" t="n">
-        <v>985.1840560939825</v>
+        <v>949.8387182967841</v>
       </c>
       <c r="P7" t="n">
-        <v>1125.580663386633</v>
+        <v>1084.669382195905</v>
       </c>
       <c r="Q7" t="n">
-        <v>1139.348916790964</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="R7" t="n">
-        <v>1139.348916790964</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="S7" t="n">
-        <v>1139.348916790964</v>
+        <v>888.5232596317823</v>
       </c>
       <c r="T7" t="n">
-        <v>1139.348916790964</v>
+        <v>888.5232596317823</v>
       </c>
       <c r="U7" t="n">
-        <v>1139.348916790964</v>
+        <v>888.5232596317823</v>
       </c>
       <c r="V7" t="n">
-        <v>945.4666615845501</v>
+        <v>761.4225409916556</v>
       </c>
       <c r="W7" t="n">
-        <v>656.0494915475896</v>
+        <v>472.005370954695</v>
       </c>
       <c r="X7" t="n">
-        <v>428.0599406495722</v>
+        <v>244.0158200566777</v>
       </c>
       <c r="Y7" t="n">
-        <v>207.2673615060421</v>
+        <v>23.22324091314757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.8611267254487</v>
+        <v>1606.635933406613</v>
       </c>
       <c r="C8" t="n">
-        <v>864.8611267254487</v>
+        <v>1606.635933406613</v>
       </c>
       <c r="D8" t="n">
-        <v>864.8611267254487</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0728741272044</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>68.08696933759688</v>
+        <v>837.3843300102551</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345439</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362704</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852815979</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872829</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923555</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.228484740836</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2346.004428740849</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2346.004428740849</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1993.235773470735</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1993.235773470735</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.46096678957</v>
+        <v>1993.235773470735</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057884</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605202</v>
+        <v>298.3188265310627</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919931</v>
+        <v>593.0223835625354</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151215</v>
+        <v>1140.868925009991</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748161</v>
+        <v>1528.154053606937</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924324</v>
+        <v>1860.2244887831</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756622</v>
+        <v>2422.685363568935</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.5950217532792</v>
+        <v>597.147596550501</v>
       </c>
       <c r="C10" t="n">
-        <v>270.5950217532792</v>
+        <v>597.147596550501</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386096</v>
+        <v>597.147596550501</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386096</v>
+        <v>597.147596550501</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386096</v>
+        <v>450.2576490525906</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386096</v>
+        <v>282.2711843608693</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>133.5322862243755</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4986,28 @@
         <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234363</v>
+        <v>1337.233965749945</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429098</v>
+        <v>1114.255484944681</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329359</v>
+        <v>825.1371474485184</v>
       </c>
       <c r="V10" t="n">
-        <v>673.036065727049</v>
+        <v>825.1371474485184</v>
       </c>
       <c r="W10" t="n">
-        <v>673.036065727049</v>
+        <v>825.1371474485184</v>
       </c>
       <c r="X10" t="n">
-        <v>673.036065727049</v>
+        <v>597.147596550501</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.2434865835189</v>
+        <v>597.147596550501</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5118,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438171</v>
+        <v>671.2000270096665</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5744,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558406</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>2757.723669558406</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>2757.723669558406</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>2757.723669558406</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F22" t="n">
-        <v>2610.833722060495</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G22" t="n">
-        <v>2443.637622775375</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,28 +5977,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532801</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2303.221053270537</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2083.619588293478</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.544361637675</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1539.859873431788</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1250.442703394828</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1022.45315249681</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>801.6605733532801</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>3233.200736907821</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>3064.264553979915</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>2914.147914567579</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>2766.234820985186</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>3414.849201738061</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306004</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>2824.769373306004</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2824.769373306004</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2824.769373306004</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2677.879425808093</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2510.683326522973</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2368.971495365171</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2392.147342939586</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>2392.147342939586</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177791</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279774</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136244</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,7 +6946,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6962,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>3807.864035926976</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>4435.461999481583</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>3175.341129796738</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>3006.404946868831</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>2856.288307456495</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630498</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398593</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>4121.883832013355</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>3867.199343807468</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>3577.782173770508</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>3577.782173770508</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="38">
@@ -7160,55 +7162,55 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7217,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2939.372134388645</v>
+        <v>3205.314685433481</v>
       </c>
       <c r="C40" t="n">
-        <v>2939.372134388645</v>
+        <v>3036.378502505574</v>
       </c>
       <c r="D40" t="n">
-        <v>2789.255494976309</v>
+        <v>2886.261863093238</v>
       </c>
       <c r="E40" t="n">
-        <v>2789.255494976309</v>
+        <v>2738.348769510846</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>2591.458822012935</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q40" t="n">
         <v>4690.833152398593</v>
@@ -7360,22 +7362,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>3386.96315026372</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7393,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,19 +7593,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W43" t="n">
         <v>1729.097755135313</v>
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7673,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>2985.713220456421</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>2816.777037528514</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>2666.660398116178</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>2518.747304533785</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>2518.747304533785</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>3167.361685286661</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>43.73304569970175</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>66.78462588923577</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>46.25131710763777</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,10 +8151,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>157.059769522229</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>13.27899488396017</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.23267925886393</v>
+        <v>54.74236624506838</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>161.6858453954332</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.5812215056051</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.4490126143776</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975110982</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>87.17534280744522</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>113.417682877128</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>100.4621571004294</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H22" t="n">
-        <v>35.40333084624453</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>125.534128440348</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>38.72167599501762</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>43.72409101823369</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>26.9772909337315</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.29392045468804</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>12.10766347585353</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>257.6444250803507</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405067</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>187.7316302469143</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>85.45266000108492</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>135.8503182118925</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>75.0369752643409</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>126.5688841976864</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>774852.3821607521</v>
+        <v>776279.8238030678</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>778189.6422211445</v>
+        <v>777748.8396859478</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621309.9391332068</v>
+        <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>118433.6817166267</v>
+        <v>55881.32342210714</v>
       </c>
       <c r="D3" t="n">
-        <v>331901.1145227996</v>
+        <v>363279.886627628</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245439</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657325</v>
+        <v>62744.31078353571</v>
       </c>
       <c r="K3" t="n">
-        <v>27536.23081727203</v>
+        <v>12992.5963444042</v>
       </c>
       <c r="L3" t="n">
-        <v>81077.35350883708</v>
+        <v>88656.33991666306</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269041.6482059988</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>237201.8650125493</v>
+        <v>246054.6603431044</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828186</v>
@@ -26433,13 +26435,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26448,16 +26450,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683056</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683053</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59032.15660993008</v>
+        <v>61145.70223437333</v>
       </c>
       <c r="C5" t="n">
-        <v>67545.0625617929</v>
+        <v>65162.40123302687</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984476</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272024.283811102</v>
+        <v>-297095.4940824551</v>
       </c>
       <c r="C6" t="n">
-        <v>254178.8508470642</v>
+        <v>310261.0751397951</v>
       </c>
       <c r="D6" t="n">
-        <v>108569.4791925714</v>
+        <v>77190.7070877426</v>
       </c>
       <c r="E6" t="n">
         <v>44291.10914897353</v>
       </c>
       <c r="F6" t="n">
+        <v>551776.5507735172</v>
+      </c>
+      <c r="G6" t="n">
+        <v>551776.5507735176</v>
+      </c>
+      <c r="H6" t="n">
+        <v>551776.5507735171</v>
+      </c>
+      <c r="I6" t="n">
+        <v>551776.5507735175</v>
+      </c>
+      <c r="J6" t="n">
+        <v>489032.2399899816</v>
+      </c>
+      <c r="K6" t="n">
+        <v>538783.9544291131</v>
+      </c>
+      <c r="L6" t="n">
+        <v>463120.210856854</v>
+      </c>
+      <c r="M6" t="n">
+        <v>419169.2570445907</v>
+      </c>
+      <c r="N6" t="n">
         <v>551776.5507735173</v>
       </c>
-      <c r="G6" t="n">
-        <v>551776.5507735177</v>
-      </c>
-      <c r="H6" t="n">
-        <v>551776.5507735175</v>
-      </c>
-      <c r="I6" t="n">
-        <v>551776.5507735172</v>
-      </c>
-      <c r="J6" t="n">
-        <v>495982.3954269444</v>
-      </c>
-      <c r="K6" t="n">
-        <v>524240.3199562455</v>
-      </c>
-      <c r="L6" t="n">
-        <v>470699.1972646803</v>
-      </c>
-      <c r="M6" t="n">
-        <v>419169.2570445908</v>
-      </c>
-      <c r="N6" t="n">
-        <v>551776.5507735177</v>
-      </c>
       <c r="O6" t="n">
-        <v>551776.5507735175</v>
+        <v>551776.550773517</v>
       </c>
       <c r="P6" t="n">
         <v>551776.5507735175</v>
@@ -26716,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>662.7110590909671</v>
+        <v>636.9329421575563</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175416</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>320.2362084475301</v>
+        <v>290.2905114143446</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26814,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26938,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.561354634218981e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-1.299278145389897e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>92.10150113272607</v>
+        <v>43.45684181949139</v>
       </c>
       <c r="D3" t="n">
-        <v>271.3538330265745</v>
+        <v>297.1319499599853</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241321</v>
@@ -26972,16 +26974,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>106.9916649205494</v>
+        <v>50.48256327283944</v>
       </c>
       <c r="D4" t="n">
-        <v>320.3486236525087</v>
+        <v>350.2943206856943</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269804</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205497</v>
+        <v>50.48256327283966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525087</v>
+        <v>350.2943206856943</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205494</v>
+        <v>50.48256327283944</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525087</v>
+        <v>350.2943206856943</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27382,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>141.4384980937023</v>
+        <v>169.4380454392798</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>193.6315022147308</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>199.764286217468</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.9823191592251</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1621402861816</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759079</v>
       </c>
       <c r="X2" t="n">
-        <v>309.7197509216935</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.0970117430779</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>169.967277102786</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8857043306949</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2176514895044</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8606354454147</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>131.2851037588987</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5490895554885</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>73.01836029921925</v>
+        <v>284.3124259033501</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232287</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508587</v>
       </c>
       <c r="X4" t="n">
-        <v>12.46511186205649</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.340109825114126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666299</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>64.39253020633839</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.8616508638342</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.40236400593268</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>22.96121735922731</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.3104082433894</v>
+        <v>150.6718910157315</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>245.4223525808642</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9180631870527</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>98.46855978255014</v>
+        <v>99.0040636833744</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370924</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>31.98090130894467</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>64.85147844706285</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7959266289505</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6020673305385</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>119.5119801162268</v>
+        <v>120.9099147197633</v>
       </c>
       <c r="J7" t="n">
-        <v>8.868952140435894</v>
+        <v>12.15545075340532</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.5594750121872</v>
+        <v>125.6496154441978</v>
       </c>
       <c r="S7" t="n">
-        <v>203.1900881963594</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8394550385642</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2538446621541</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>60.19421066947803</v>
+        <v>126.3079318701027</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.8759218310561</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>243.5318844459825</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>36.25731538868951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.33395054409178</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30706,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.293907770686394</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>23.49248295654204</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>88.4358793293873</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
-        <v>194.6925546522945</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>291.7936705854496</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>361.9958505225935</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>402.7901328395376</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>409.3076982930003</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>386.4976528982375</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>329.8668048094171</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.7162327717105</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0946840003793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27242332451626</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0415812661797</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1835126216549115</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.227348860513952</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85360610022686</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>42.25740594313389</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
-        <v>115.9575517733818</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>198.1899254278166</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4908128936106</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>310.9822090872413</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>319.2129828053371</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>292.0175159486859</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>234.3698012677915</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.6700054227986</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>76.20329153261191</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
-        <v>22.79746677314292</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>4.947077205317201</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08074663556012848</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028968055334533</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.148461437428853</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>30.94387570042396</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>72.74804151215147</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>119.5473795197757</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>152.9794870630996</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>161.2954198012123</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4601752313291</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>145.439957494012</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4490091651874</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>46.26614546985999</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>17.93210692796635</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.396499872793003</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05612553029097458</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.664165061672227</v>
+        <v>2.560534440834395</v>
       </c>
       <c r="H5" t="n">
-        <v>27.28438043785071</v>
+        <v>26.22307334219526</v>
       </c>
       <c r="I5" t="n">
-        <v>102.7102235401186</v>
+        <v>98.71500403026812</v>
       </c>
       <c r="J5" t="n">
-        <v>226.1176794031034</v>
+        <v>217.3221599977685</v>
       </c>
       <c r="K5" t="n">
-        <v>338.8917864636888</v>
+        <v>325.7095828782885</v>
       </c>
       <c r="L5" t="n">
-        <v>420.4252279698404</v>
+        <v>404.0715387719742</v>
       </c>
       <c r="M5" t="n">
-        <v>467.8040733853538</v>
+        <v>449.6074431341628</v>
       </c>
       <c r="N5" t="n">
-        <v>475.3736323668301</v>
+        <v>456.8825616141836</v>
       </c>
       <c r="O5" t="n">
-        <v>448.8818410348268</v>
+        <v>431.4212472681366</v>
       </c>
       <c r="P5" t="n">
-        <v>383.1102660747937</v>
+        <v>368.2080532600374</v>
       </c>
       <c r="Q5" t="n">
-        <v>287.6998548036569</v>
+        <v>276.5089135976555</v>
       </c>
       <c r="R5" t="n">
-        <v>167.3528585552682</v>
+        <v>160.8431715690637</v>
       </c>
       <c r="S5" t="n">
-        <v>60.70966134285595</v>
+        <v>58.34817857051384</v>
       </c>
       <c r="T5" t="n">
-        <v>11.66238255747018</v>
+        <v>11.20873951475257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2131332049337782</v>
+        <v>0.2048427552667516</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.425453976157929</v>
+        <v>1.370006705772857</v>
       </c>
       <c r="H6" t="n">
-        <v>13.76688445394632</v>
+        <v>13.23138055312207</v>
       </c>
       <c r="I6" t="n">
-        <v>49.07813031947257</v>
+        <v>47.16909052770583</v>
       </c>
       <c r="J6" t="n">
-        <v>134.6741407913068</v>
+        <v>129.4355896888295</v>
       </c>
       <c r="K6" t="n">
-        <v>230.1795571938881</v>
+        <v>221.2260389756109</v>
       </c>
       <c r="L6" t="n">
-        <v>309.5048205688522</v>
+        <v>297.4657103916022</v>
       </c>
       <c r="M6" t="n">
-        <v>361.177527204577</v>
+        <v>347.1284534758682</v>
       </c>
       <c r="N6" t="n">
-        <v>370.7368216324081</v>
+        <v>356.3159107264239</v>
       </c>
       <c r="O6" t="n">
-        <v>339.1517624764876</v>
+        <v>325.9594463511411</v>
       </c>
       <c r="P6" t="n">
-        <v>272.1991895349295</v>
+        <v>261.6111927892046</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.957949658335</v>
+        <v>174.880154231637</v>
       </c>
       <c r="R6" t="n">
-        <v>88.50318634426164</v>
+        <v>85.06059178473936</v>
       </c>
       <c r="S6" t="n">
-        <v>26.47718240802117</v>
+        <v>25.44727367959669</v>
       </c>
       <c r="T6" t="n">
-        <v>5.745579842496213</v>
+        <v>5.522088432479189</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09377986685249538</v>
+        <v>0.09013202011663538</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.195052729508301</v>
+        <v>1.148567600611987</v>
       </c>
       <c r="H7" t="n">
-        <v>10.62510517690109</v>
+        <v>10.21181012180476</v>
       </c>
       <c r="I7" t="n">
-        <v>35.93849481103147</v>
+        <v>34.54056020749503</v>
       </c>
       <c r="J7" t="n">
-        <v>84.49022797623688</v>
+        <v>81.20372936326746</v>
       </c>
       <c r="K7" t="n">
-        <v>138.843398937419</v>
+        <v>133.442672143829</v>
       </c>
       <c r="L7" t="n">
-        <v>177.671748530716</v>
+        <v>170.7606776400767</v>
       </c>
       <c r="M7" t="n">
-        <v>187.3299474082876</v>
+        <v>180.0431921577499</v>
       </c>
       <c r="N7" t="n">
-        <v>182.8756599619386</v>
+        <v>175.7621674645599</v>
       </c>
       <c r="O7" t="n">
-        <v>168.915271258137</v>
+        <v>162.3448095846834</v>
       </c>
       <c r="P7" t="n">
-        <v>144.5361955761676</v>
+        <v>138.9140305321988</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.069369922736</v>
+        <v>96.176874265791</v>
       </c>
       <c r="R7" t="n">
-        <v>53.73391636498233</v>
+        <v>51.64377593297168</v>
       </c>
       <c r="S7" t="n">
-        <v>20.82650984061284</v>
+        <v>20.01640082157434</v>
       </c>
       <c r="T7" t="n">
-        <v>5.106134389717285</v>
+        <v>4.90751611170576</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06518469433681651</v>
+        <v>0.06264914185156298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>579.5299594447131</v>
+        <v>231.5286848890179</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32488,7 +32490,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
@@ -32546,16 +32548,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>574.2721069128556</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,10 +32785,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>223.6976288294625</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.7456072667729</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796314</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>637.8521160493925</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.64665012560826</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>71.70381954046906</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>126.2294355526062</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
-        <v>172.4438996122649</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8946346964094</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>156.3994414765508</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>98.63380905414755</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.41054289726102</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.85297080641686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.34848645345761</v>
+        <v>135.0753528219196</v>
       </c>
       <c r="L3" t="n">
-        <v>127.9364331137364</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>168.848175165223</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>187.8712707220038</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4212715042414</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>100.3953938534613</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>97.27788769389285</v>
+        <v>41.57616651612644</v>
       </c>
       <c r="L4" t="n">
-        <v>180.5695123234157</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8792967630528</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>201.5923476105577</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>164.0431885643982</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.07177487641712</v>
+        <v>36.27625547108218</v>
       </c>
       <c r="K5" t="n">
-        <v>118.8019354187083</v>
+        <v>105.6197318333079</v>
       </c>
       <c r="L5" t="n">
-        <v>184.6588129998531</v>
+        <v>168.305123801987</v>
       </c>
       <c r="M5" t="n">
-        <v>237.4578401580811</v>
+        <v>219.2612099068901</v>
       </c>
       <c r="N5" t="n">
-        <v>245.9605687702392</v>
+        <v>227.4694980175927</v>
       </c>
       <c r="O5" t="n">
-        <v>218.7836296131401</v>
+        <v>201.3230358464499</v>
       </c>
       <c r="P5" t="n">
-        <v>151.8772703195241</v>
+        <v>136.9750575047678</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.39416492920745</v>
+        <v>54.20322372320604</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.836514124640132</v>
+        <v>128.6889983625716</v>
       </c>
       <c r="K6" t="n">
-        <v>254.0239636149623</v>
+        <v>83.3846000012519</v>
       </c>
       <c r="L6" t="n">
-        <v>170.950440788978</v>
+        <v>158.911330611728</v>
       </c>
       <c r="M6" t="n">
-        <v>219.0434932825587</v>
+        <v>207.575641059455</v>
       </c>
       <c r="N6" t="n">
-        <v>239.3951095490748</v>
+        <v>224.9741986430906</v>
       </c>
       <c r="O6" t="n">
-        <v>196.5555180320432</v>
+        <v>183.3632019066967</v>
       </c>
       <c r="P6" t="n">
-        <v>138.2247821205993</v>
+        <v>127.6367853748744</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.97617557231345</v>
+        <v>34.89838014561548</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>116.5739071115361</v>
+        <v>111.1731803179461</v>
       </c>
       <c r="L7" t="n">
-        <v>205.2617737910321</v>
+        <v>198.3507029003928</v>
       </c>
       <c r="M7" t="n">
-        <v>226.9138243701282</v>
+        <v>219.6270691195905</v>
       </c>
       <c r="N7" t="n">
-        <v>227.0078323411672</v>
+        <v>219.8943398437885</v>
       </c>
       <c r="O7" t="n">
-        <v>193.5003991721767</v>
+        <v>186.9299374987231</v>
       </c>
       <c r="P7" t="n">
-        <v>141.814754841061</v>
+        <v>136.1925897970923</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.90732667104164</v>
+        <v>10.01483101409661</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560642</v>
+        <v>186.5874962434856</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>553.3803448964194</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928752</v>
@@ -35267,13 +35269,13 @@
         <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>568.1422977634704</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419534</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977125</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648388</v>
+        <v>92.97430510914373</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648388</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>81.10138438501811</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37719,7 +37721,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>499.2977362695183</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2779311.493559218</v>
+        <v>2781072.023862003</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.3059367771007</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>239.807948141505</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>211.2228407230376</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>95.79983565635943</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>214.100858146731</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>107.0962547611474</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.4015582975057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2905114143418</v>
+        <v>290.2905114143454</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143418</v>
+        <v>290.2905114143454</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430066</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157317</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.27378836371997</v>
+        <v>242.9456793794546</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143418</v>
+        <v>290.2905114143454</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>48.97773938789373</v>
       </c>
       <c r="D6" t="n">
-        <v>127.9642235604834</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.0972423679041</v>
+        <v>15.09724236790369</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340562</v>
+        <v>12.15545075340523</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>190.9732996912764</v>
+        <v>42.35782667306938</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1555835332102</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>73.24756871688444</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>24.55276019063715</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>61.66004604094368</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462301</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144417</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>44.7513807668935</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.3656974031041</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>59.44001103519455</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>167.1115298725988</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>80.67842139644046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>113.6427030833213</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113372</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695433</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>758.9227655184436</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="C2" t="n">
-        <v>758.9227655184436</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="D2" t="n">
-        <v>516.6925148704587</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="E2" t="n">
-        <v>274.4622642224738</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448889</v>
+        <v>232.5410406220654</v>
       </c>
       <c r="G2" t="n">
         <v>19.1846358513204</v>
@@ -4330,52 +4330,52 @@
         <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779391</v>
+        <v>643.3443219779383</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948986</v>
+        <v>813.5133472948978</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444251</v>
+        <v>924.2476725444249</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660201</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660201</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660201</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660201</v>
+        <v>474.7712912700503</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.2489447819527</v>
+        <v>327.3565005180271</v>
       </c>
       <c r="C3" t="n">
-        <v>519.7959155008257</v>
+        <v>327.3565005180271</v>
       </c>
       <c r="D3" t="n">
-        <v>370.8615058395744</v>
+        <v>178.4220908567759</v>
       </c>
       <c r="E3" t="n">
-        <v>211.6240508341189</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F3" t="n">
-        <v>65.08949286100392</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>65.08949286100392</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
-        <v>65.08949286100392</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
         <v>19.1846358513204</v>
@@ -4412,49 +4412,49 @@
         <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450204</v>
+        <v>86.7924555146774</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607143</v>
+        <v>251.3857061532887</v>
       </c>
       <c r="M3" t="n">
-        <v>469.636169515319</v>
+        <v>430.8830425078935</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679837</v>
+        <v>668.2929111679834</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367443</v>
+        <v>827.8052238367441</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640431</v>
+        <v>936.4948513640429</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U3" t="n">
-        <v>862.4642818020207</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="V3" t="n">
-        <v>862.4642818020207</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="W3" t="n">
-        <v>862.4642818020207</v>
+        <v>742.9682994885138</v>
       </c>
       <c r="X3" t="n">
-        <v>862.4642818020207</v>
+        <v>535.116799282981</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.4642818020207</v>
+        <v>327.3565005180271</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.9150870312292</v>
+        <v>669.40529262351</v>
       </c>
       <c r="C4" t="n">
-        <v>481.9789041033223</v>
+        <v>500.4691096956032</v>
       </c>
       <c r="D4" t="n">
-        <v>331.8622646909865</v>
+        <v>500.4691096956032</v>
       </c>
       <c r="E4" t="n">
-        <v>183.9491711085934</v>
+        <v>352.55601611321</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>205.6660686152997</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>37.05922361068302</v>
       </c>
       <c r="J4" t="n">
         <v>19.1846358513204</v>
@@ -4497,43 +4497,43 @@
         <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223414</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584456</v>
+        <v>716.1585259030907</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470445</v>
+        <v>890.2534212916895</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456602</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="X4" t="n">
-        <v>959.2317925660201</v>
+        <v>851.0537574537498</v>
       </c>
       <c r="Y4" t="n">
-        <v>832.5635518614689</v>
+        <v>851.0537574537498</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>622.5396307141416</v>
+        <v>622.5396307141491</v>
       </c>
       <c r="C5" t="n">
-        <v>622.5396307141416</v>
+        <v>622.5396307141491</v>
       </c>
       <c r="D5" t="n">
-        <v>622.5396307141416</v>
+        <v>622.5396307141491</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3168919117761</v>
+        <v>329.31689191178</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941064</v>
+        <v>36.09415310941092</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951742</v>
+        <v>59.13673382951902</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444912</v>
+        <v>163.7002683444941</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084568</v>
+        <v>330.3223409084617</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162763</v>
+        <v>547.3909387162834</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536912</v>
+        <v>772.5857417537005</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416751</v>
+        <v>971.8955472416865</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171394</v>
+        <v>1107.500854171407</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657367</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657367</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348547</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="T5" t="n">
-        <v>1008.968216348547</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="U5" t="n">
-        <v>1008.968216348547</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="V5" t="n">
-        <v>1008.968216348547</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="W5" t="n">
-        <v>1008.968216348547</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="X5" t="n">
-        <v>915.7623695165071</v>
+        <v>915.7623695165182</v>
       </c>
       <c r="Y5" t="n">
-        <v>622.5396307141416</v>
+        <v>622.5396307141491</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.9330616695102</v>
+        <v>72.69570494132313</v>
       </c>
       <c r="C6" t="n">
-        <v>152.4800323883831</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="J6" t="n">
-        <v>25.795224305088</v>
+        <v>150.6253492920937</v>
       </c>
       <c r="K6" t="n">
-        <v>235.7315125838776</v>
+        <v>235.7315125838832</v>
       </c>
       <c r="L6" t="n">
-        <v>393.0537298894872</v>
+        <v>393.0537298894942</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052477973</v>
+        <v>595.9982052478059</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044557</v>
+        <v>818.722661904466</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792084</v>
+        <v>1000.252231792096</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313209</v>
+        <v>1126.612649313222</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657367</v>
+        <v>1161.162045657381</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891808</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891808</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891808</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891808</v>
+        <v>1145.912305891822</v>
       </c>
       <c r="V6" t="n">
-        <v>910.7601976600649</v>
+        <v>910.7601976600795</v>
       </c>
       <c r="W6" t="n">
-        <v>910.7601976600649</v>
+        <v>656.5228409318779</v>
       </c>
       <c r="X6" t="n">
-        <v>702.9086974545321</v>
+        <v>448.6713407263451</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.1483986895782</v>
+        <v>240.9110419613912</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>499.2406980056059</v>
+        <v>649.3573374179415</v>
       </c>
       <c r="C7" t="n">
-        <v>330.3045150776989</v>
+        <v>480.4211544900346</v>
       </c>
       <c r="D7" t="n">
         <v>330.3045150776989</v>
       </c>
       <c r="E7" t="n">
-        <v>182.3914214953058</v>
+        <v>182.3914214953057</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739544</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739544</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739544</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739544</v>
+        <v>35.50147399739534</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314735</v>
+        <v>23.22324091314763</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279135</v>
+        <v>133.2846894279144</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993017</v>
+        <v>329.6518852993035</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276957</v>
+        <v>547.0826837276982</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730456</v>
+        <v>764.7780801730489</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967808</v>
+        <v>949.8387182967849</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195902</v>
+        <v>1084.669382195906</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899857</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899857</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899857</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899857</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899857</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899857</v>
+        <v>1094.584064899862</v>
       </c>
       <c r="W7" t="n">
-        <v>901.6817419793757</v>
+        <v>1051.798381391711</v>
       </c>
       <c r="X7" t="n">
-        <v>901.6817419793757</v>
+        <v>1051.798381391711</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.8891628358456</v>
+        <v>831.0058022481812</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1966.993846941858</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1598.031330001447</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1239.765631394696</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>853.9773787964518</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4804,16 +4804,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4962,25 +4962,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.645352205167</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.96086399928</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.543693962319</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190824</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925226</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="F13" t="n">
-        <v>297.8113689946122</v>
+        <v>283.8927175774231</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057802</v>
+        <v>116.6966182923031</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168645</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362719</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048583</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,73 +5494,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098246</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819177</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>664.302781469582</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871889</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892785</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.708435085168</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572612</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449254</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449254</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855605</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199803</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993916</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956955</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058938</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154078</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,13 +5977,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5995,43 +5995,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832667</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510512</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.38585385471</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648823</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459591</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180522</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919729</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761988</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,13 +7675,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923534</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>27.64005315446204</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>39.14457273477302</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.0172116724305</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637921</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839804</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506901</v>
+        <v>54.74236624506821</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>128.6722568460112</v>
+        <v>2.581221505605981</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.8640922513252</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.643557154336</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6825818796757</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891648</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>106.0841272570743</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>50.2939204546895</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>205.8445769401505</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.97276993489108</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800894</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210414</v>
+        <v>55881.32342210806</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276288</v>
+        <v>363279.8866276253</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353591</v>
+        <v>62744.31078353593</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440337</v>
+        <v>12992.59634440444</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666386</v>
+        <v>88656.33991666282</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,34 +26420,34 @@
         <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431052</v>
+        <v>246054.6603431041</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.8641468303</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683033</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26459,7 +26459,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.70223437331</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302666</v>
+        <v>65162.40123302694</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26493,13 +26493,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297095.4940824552</v>
+        <v>-297095.494082455</v>
       </c>
       <c r="C6" t="n">
-        <v>310261.0751397975</v>
+        <v>310261.0751397942</v>
       </c>
       <c r="D6" t="n">
-        <v>77190.70708774167</v>
+        <v>77190.70708774512</v>
       </c>
       <c r="E6" t="n">
-        <v>43943.72989461435</v>
+        <v>44256.37122353591</v>
       </c>
       <c r="F6" t="n">
-        <v>551429.1715191606</v>
+        <v>551741.8128480819</v>
       </c>
       <c r="G6" t="n">
-        <v>551429.1715191605</v>
+        <v>551741.8128480818</v>
       </c>
       <c r="H6" t="n">
-        <v>551429.1715191606</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="I6" t="n">
-        <v>551429.1715191605</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="J6" t="n">
-        <v>488684.8607356249</v>
+        <v>488997.5020645456</v>
       </c>
       <c r="K6" t="n">
-        <v>538436.5751747573</v>
+        <v>538749.2165036778</v>
       </c>
       <c r="L6" t="n">
-        <v>462772.8316024966</v>
+        <v>463085.4729314187</v>
       </c>
       <c r="M6" t="n">
-        <v>418821.8777902337</v>
+        <v>419134.5191191548</v>
       </c>
       <c r="N6" t="n">
-        <v>551429.1715191607</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="O6" t="n">
-        <v>551429.1715191605</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="P6" t="n">
-        <v>551429.1715191605</v>
+        <v>551741.8128480817</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.932942157554</v>
+        <v>636.932942157557</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,37 +26792,37 @@
         <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143418</v>
+        <v>290.2905114143454</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>43.456841819489</v>
+        <v>43.45684181949207</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599851</v>
+        <v>297.1319499599823</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283689</v>
+        <v>50.48256327284039</v>
       </c>
       <c r="D4" t="n">
-        <v>350.294320685697</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283644</v>
+        <v>50.48256327284062</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856975</v>
+        <v>350.2943206856934</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283689</v>
+        <v>50.48256327284039</v>
       </c>
       <c r="L4" t="n">
-        <v>350.294320685697</v>
+        <v>350.2943206856935</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184.4279048863799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307568</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002064</v>
+        <v>167.0680976002065</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>201.6940632228992</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -27438,13 +27438,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032862994</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>129.9231525369641</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -27478,7 +27478,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>130.0575639575864</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>37.59412501418865</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>22.07692690664392</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.18309505458913</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>91.63985865791994</v>
+        <v>91.63985865791642</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273696</v>
+        <v>116.5855343273661</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.251728773572</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401382</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493788</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.4573123147491</v>
+        <v>126.7854212990145</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724171175</v>
+        <v>95.94742724170823</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>123.730759600422</v>
       </c>
       <c r="D6" t="n">
-        <v>19.48084200415533</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337444</v>
+        <v>99.00406368337438</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370942</v>
+        <v>42.22754232370919</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242412</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856349</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197634</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.649615444198</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>204.000197215398</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>95.54969864531463</v>
+        <v>244.1651716635216</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.72046220850126</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.4835319615846</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>261.6743939305634</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.03000352688234e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.288056192580361e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834386</v>
+        <v>2.560534440834398</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219516</v>
+        <v>26.22307334219529</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026775</v>
+        <v>98.71500403026823</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977676</v>
+        <v>217.3221599977687</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782873</v>
+        <v>325.7095828782888</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719727</v>
+        <v>404.0715387719746</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341612</v>
+        <v>449.6074431341634</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141819</v>
+        <v>456.8825616141841</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681349</v>
+        <v>431.4212472681371</v>
       </c>
       <c r="P5" t="n">
-        <v>368.208053260036</v>
+        <v>368.2080532600378</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976545</v>
+        <v>276.5089135976558</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690631</v>
+        <v>160.8431715690639</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051362</v>
+        <v>58.34817857051391</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475253</v>
+        <v>11.20873951475258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667508</v>
+        <v>0.2048427552667518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772852</v>
+        <v>1.370006705772859</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312202</v>
+        <v>13.23138055312208</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770566</v>
+        <v>47.16909052770588</v>
       </c>
       <c r="J6" t="n">
-        <v>129.435589688829</v>
+        <v>129.4355896888296</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756101</v>
+        <v>221.2260389756111</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916011</v>
+        <v>297.4657103916025</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758669</v>
+        <v>347.1284534758685</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264226</v>
+        <v>356.3159107264243</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511399</v>
+        <v>325.9594463511415</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892036</v>
+        <v>261.6111927892049</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316363</v>
+        <v>174.8801542316372</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473903</v>
+        <v>85.06059178473944</v>
       </c>
       <c r="S6" t="n">
-        <v>25.4472736795966</v>
+        <v>25.44727367959672</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479169</v>
+        <v>5.522088432479196</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663503</v>
+        <v>0.09013202011663547</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611982</v>
+        <v>1.148567600611988</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180472</v>
+        <v>10.21181012180477</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5405602074949</v>
+        <v>34.54056020749507</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326716</v>
+        <v>81.20372936326754</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438285</v>
+        <v>133.4426721438291</v>
       </c>
       <c r="L7" t="n">
-        <v>170.760677640076</v>
+        <v>170.7606776400769</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577492</v>
+        <v>180.04319215775</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645592</v>
+        <v>175.7621674645601</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846828</v>
+        <v>162.3448095846836</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321983</v>
+        <v>138.9140305321989</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579064</v>
+        <v>96.17687426579111</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297149</v>
+        <v>51.64377593297174</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157427</v>
+        <v>20.01640082157436</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705742</v>
+        <v>4.907516111705766</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156276</v>
+        <v>0.06264914185156305</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041049</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219192</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>166.25580872587</v>
       </c>
       <c r="M3" t="n">
         <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>239.807948141505</v>
       </c>
       <c r="O3" t="n">
         <v>161.1235481502632</v>
@@ -34865,7 +34865,7 @@
         <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925181</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233377</v>
@@ -34874,10 +34874,10 @@
         <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>69.67512249932359</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108136</v>
+        <v>36.27625547108241</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333067</v>
+        <v>105.6197318333083</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019855</v>
+        <v>168.3051238019874</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068885</v>
+        <v>219.2612099068906</v>
       </c>
       <c r="N5" t="n">
-        <v>227.469498017591</v>
+        <v>227.4694980175932</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464482</v>
+        <v>201.3230358464503</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047665</v>
+        <v>136.9750575047682</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320501</v>
+        <v>54.20322372320632</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162276</v>
+        <v>128.6889983625717</v>
       </c>
       <c r="K6" t="n">
-        <v>212.0568568472622</v>
+        <v>85.96582150685811</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117269</v>
+        <v>158.9113306117283</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538486</v>
+        <v>204.9944195538502</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430893</v>
+        <v>224.974198643091</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066955</v>
+        <v>183.363201906697</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748734</v>
+        <v>127.6367853748746</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561482</v>
+        <v>34.89838014561568</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179456</v>
+        <v>111.1731803179463</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003922</v>
+        <v>198.350702900393</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195898</v>
+        <v>219.6270691195906</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437878</v>
+        <v>219.8943398437887</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987225</v>
+        <v>186.9299374987233</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970918</v>
+        <v>136.1925897970924</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409626</v>
+        <v>10.01483101409673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820866</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899108</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
